--- a/test/input.xlsx
+++ b/test/input.xlsx
@@ -92,25 +92,7 @@
     <t xml:space="preserve">Nikola</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kopeck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">á</t>
-    </r>
+    <t xml:space="preserve">Kopecká</t>
   </si>
   <si>
     <t xml:space="preserve">Ž</t>
@@ -158,25 +140,7 @@
     <t xml:space="preserve">Bronislava</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fialov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">á</t>
-    </r>
+    <t xml:space="preserve">Fialová</t>
   </si>
   <si>
     <t xml:space="preserve">EPI_ISL_2989598</t>
@@ -206,25 +170,7 @@
     <t xml:space="preserve">Andela</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Doležalov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">á</t>
-    </r>
+    <t xml:space="preserve">Doležalová</t>
   </si>
   <si>
     <t xml:space="preserve">EPI_ISL_2989600</t>
@@ -665,7 +611,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -701,12 +647,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -786,7 +726,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,10 +747,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -823,20 +759,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -851,11 +779,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,15 +791,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -955,7 +879,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +889,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="15.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.68"/>
@@ -1033,7 +957,7 @@
       <c r="F2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="3" t="n">
         <v>7700425327</v>
       </c>
       <c r="H2" s="4" t="n">
@@ -1042,16 +966,16 @@
       <c r="I2" s="4" t="n">
         <v>44363</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1068,13 +992,13 @@
       <c r="D3" s="4" t="n">
         <v>34079</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="3" t="n">
         <v>8297630058</v>
       </c>
       <c r="H3" s="4" t="n">
@@ -1083,16 +1007,16 @@
       <c r="I3" s="4" t="n">
         <v>44364</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1109,13 +1033,13 @@
       <c r="D4" s="4" t="n">
         <v>31644</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="3" t="n">
         <v>6849646004</v>
       </c>
       <c r="H4" s="4" t="n">
@@ -1124,16 +1048,16 @@
       <c r="I4" s="4" t="n">
         <v>44365</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1144,19 +1068,19 @@
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="9" t="n">
         <v>32217</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="6" t="n">
         <v>4100937568</v>
       </c>
       <c r="H5" s="4" t="n">
@@ -1165,16 +1089,16 @@
       <c r="I5" s="4" t="n">
         <v>44366</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1182,7 +1106,7 @@
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1191,13 +1115,13 @@
       <c r="D6" s="4" t="n">
         <v>41102</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="3" t="n">
         <v>3346000249</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -1206,16 +1130,16 @@
       <c r="I6" s="4" t="n">
         <v>44367</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1223,7 +1147,7 @@
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1232,13 +1156,13 @@
       <c r="D7" s="4" t="n">
         <v>30736</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="3" t="n">
         <v>3400060648</v>
       </c>
       <c r="H7" s="4" t="n">
@@ -1247,16 +1171,16 @@
       <c r="I7" s="4" t="n">
         <v>44368</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1264,22 +1188,22 @@
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="12" t="n">
         <v>33239</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="3" t="n">
         <v>1288750004</v>
       </c>
       <c r="H8" s="4" t="n">
@@ -1288,72 +1212,72 @@
       <c r="I8" s="4" t="n">
         <v>44369</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="5" t="n">
         <v>44379</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="17"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="17"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="17"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="17"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="17"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="17"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="17"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="17"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="17"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="17"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="17"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="17"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="17"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="17"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="17"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="17"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="17"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="17"/>
+      <c r="J26" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1386,37 +1310,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1424,7 +1348,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1432,7 +1356,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1445,650 +1369,650 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21"/>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="21"/>
-      <c r="B68" s="20" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21"/>
-      <c r="B70" s="20" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="21"/>
-      <c r="B72" s="20" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21"/>
-      <c r="B74" s="20" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="21"/>
-      <c r="B79" s="20" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="21"/>
-      <c r="B81" s="20" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="21"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="21"/>
-      <c r="B87" s="20" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="21"/>
-      <c r="B89" s="20" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="21"/>
-      <c r="B91" s="20" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="21"/>
-      <c r="B93" s="20" t="s">
+      <c r="A93" s="17"/>
+      <c r="B93" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="21"/>
-      <c r="B95" s="20" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="21"/>
-      <c r="B97" s="20" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="21"/>
-      <c r="B99" s="20" t="s">
+      <c r="A99" s="17"/>
+      <c r="B99" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="16" t="s">
         <v>192</v>
       </c>
     </row>
